--- a/Tips-For-HTML-CSS.xlsx
+++ b/Tips-For-HTML-CSS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>Tags</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Ends Table.</t>
+  </si>
+  <si>
+    <t>just a test</t>
   </si>
 </sst>
 </file>
@@ -622,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1676,9 @@
     </row>
     <row r="55" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
